--- a/biology/Zoologie/Eurylepis_taeniolata/Eurylepis_taeniolata.xlsx
+++ b/biology/Zoologie/Eurylepis_taeniolata/Eurylepis_taeniolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurylepis taeniolata est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurylepis taeniolata est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Inde dans les États du Jammu-et-Cachemire, du Pendjab, du Rajasthan et du Gujarat ;
 au Pakistan ;
 en Afghanistan ;
@@ -550,9 +564,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 avril 2014) :
 Eurylepis taeniolata arabica (Szczerbak, 1990)
 Eurylepis taeniolata parthianica (Szczerbak, 1990)
 Eurylepis taeniolata taeniolata Blyth, 1854</t>
@@ -583,7 +599,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Blyth, 1854 : Proceedings of the Society. Report of the Curator, Zoological Department. Journal of the Asiatic Society of Bengal, vol. 23, p. 729-740 (texte intégral).
 Shcherbak, 1990 : Systematics And Geographic Variability Of Eumeces-Taeniolatus Sauria Scincidae [in Russian]. Vestnik Zoologii, Kiev, vol. 3, p. 33-40.</t>
